--- a/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets\java\classe\projetIntegrationWithMaven\src\main\resources\datasources\angleterre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250E79DE-E166-4314-921A-8B4330994CF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DD08A2-4008-4047-90F9-B4417080B5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoProfessionel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -50,6 +50,24 @@
   </si>
   <si>
     <t>Pays</t>
+  </si>
+  <si>
+    <t>ANG001</t>
+  </si>
+  <si>
+    <t>Mecanicien</t>
+  </si>
+  <si>
+    <t>Londres</t>
+  </si>
+  <si>
+    <t>CDI</t>
+  </si>
+  <si>
+    <t>Angleterre</t>
+  </si>
+  <si>
+    <t>Electronique</t>
   </si>
 </sst>
 </file>
@@ -91,9 +109,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,24 +427,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
@@ -460,6 +479,35 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>38066</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45735</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DD08A2-4008-4047-90F9-B4417080B5B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CEFE9A-2342-4A98-88CD-96A480DD318C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,12 @@
     <sheet name="InfoProfessionel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -68,13 +69,79 @@
   </si>
   <si>
     <t>Electronique</t>
+  </si>
+  <si>
+    <t>ANG002</t>
+  </si>
+  <si>
+    <t>ANG003</t>
+  </si>
+  <si>
+    <t>ANG004</t>
+  </si>
+  <si>
+    <t>ANG005</t>
+  </si>
+  <si>
+    <t>ANG006</t>
+  </si>
+  <si>
+    <t>ANG007</t>
+  </si>
+  <si>
+    <t>ANG008</t>
+  </si>
+  <si>
+    <t>ANG009</t>
+  </si>
+  <si>
+    <t>ANG010</t>
+  </si>
+  <si>
+    <t>ANG011</t>
+  </si>
+  <si>
+    <t>ANG012</t>
+  </si>
+  <si>
+    <t>ANG013</t>
+  </si>
+  <si>
+    <t>ANG014</t>
+  </si>
+  <si>
+    <t>ANG015</t>
+  </si>
+  <si>
+    <t>ANG016</t>
+  </si>
+  <si>
+    <t>ANG017</t>
+  </si>
+  <si>
+    <t>ANG018</t>
+  </si>
+  <si>
+    <t>ANG019</t>
+  </si>
+  <si>
+    <t>ANG020</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>Communication</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -87,6 +154,12 @@
       <sz val="14"/>
       <color indexed="10"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I2" sqref="I2:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +566,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="2">
-        <v>38066</v>
+        <v>36605</v>
       </c>
       <c r="G2" s="2">
         <v>45735</v>
@@ -502,13 +575,466 @@
         <v>15</v>
       </c>
       <c r="I2">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2">
+        <v>36606</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45736</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43546</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45737</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2">
+        <v>36608</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45738</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5">
         <v>55</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>39531</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45739</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2">
+        <v>42088</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45740</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>36611</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45741</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2">
+        <v>36612</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45742</v>
+      </c>
+      <c r="I9">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2">
+        <v>36613</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45743</v>
+      </c>
+      <c r="I10">
+        <v>12.13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2">
+        <v>36614</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45744</v>
+      </c>
+      <c r="I11">
+        <v>12.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>36615</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45745</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2">
+        <v>36616</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45746</v>
+      </c>
+      <c r="I13">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="2">
+        <v>36617</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45747</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>36618</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45748</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="2">
+        <v>36619</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45749</v>
+      </c>
+      <c r="I16">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="2">
+        <v>36620</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45750</v>
+      </c>
+      <c r="I17">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="2">
+        <v>41004</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45751</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43561</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45752</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="2">
+        <v>42832</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45753</v>
+      </c>
+      <c r="I20">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2">
+        <v>40641</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45754</v>
+      </c>
+      <c r="I21">
+        <v>80</v>
+      </c>
+      <c r="J21" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CEFE9A-2342-4A98-88CD-96A480DD318C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74154BC2-9CD5-49C3-9CAB-A9CAB9AE2848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="InfoProfessionel" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -135,6 +134,15 @@
   </si>
   <si>
     <t>Communication</t>
+  </si>
+  <si>
+    <t>Logistique</t>
+  </si>
+  <si>
+    <t>Audit interne</t>
+  </si>
+  <si>
+    <t>Direction Générale</t>
   </si>
 </sst>
 </file>
@@ -500,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I21"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +632,7 @@
         <v>45737</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4">
         <v>71</v>
@@ -650,7 +658,7 @@
         <v>45738</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I5">
         <v>55</v>
@@ -676,7 +684,7 @@
         <v>45739</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>45</v>
@@ -727,6 +735,9 @@
       <c r="G8" s="2">
         <v>45741</v>
       </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
       <c r="I8">
         <v>20</v>
       </c>
@@ -750,6 +761,9 @@
       <c r="G9" s="2">
         <v>45742</v>
       </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
       <c r="I9">
         <v>9.0299999999999994</v>
       </c>
@@ -773,6 +787,9 @@
       <c r="G10" s="2">
         <v>45743</v>
       </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
       <c r="I10">
         <v>12.13</v>
       </c>
@@ -796,6 +813,9 @@
       <c r="G11" s="2">
         <v>45744</v>
       </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
       <c r="I11">
         <v>12.5</v>
       </c>
@@ -819,6 +839,9 @@
       <c r="G12" s="2">
         <v>45745</v>
       </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
       <c r="I12">
         <v>14</v>
       </c>
@@ -842,6 +865,9 @@
       <c r="G13" s="2">
         <v>45746</v>
       </c>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
       <c r="I13">
         <v>13</v>
       </c>
@@ -865,6 +891,9 @@
       <c r="G14" s="2">
         <v>45747</v>
       </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
       <c r="I14">
         <v>25</v>
       </c>
@@ -888,6 +917,9 @@
       <c r="G15" s="2">
         <v>45748</v>
       </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
       <c r="I15">
         <v>17</v>
       </c>
@@ -911,6 +943,9 @@
       <c r="G16" s="2">
         <v>45749</v>
       </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
       <c r="I16">
         <v>30</v>
       </c>
@@ -934,6 +969,9 @@
       <c r="G17" s="2">
         <v>45750</v>
       </c>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
       <c r="I17">
         <v>26</v>
       </c>
@@ -957,6 +995,9 @@
       <c r="G18" s="2">
         <v>45751</v>
       </c>
+      <c r="H18" t="s">
+        <v>40</v>
+      </c>
       <c r="I18">
         <v>11</v>
       </c>
@@ -980,6 +1021,9 @@
       <c r="G19" s="2">
         <v>45752</v>
       </c>
+      <c r="H19" t="s">
+        <v>37</v>
+      </c>
       <c r="I19">
         <v>50</v>
       </c>
@@ -1003,6 +1047,9 @@
       <c r="G20" s="2">
         <v>45753</v>
       </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
       <c r="I20">
         <v>34</v>
       </c>
@@ -1026,11 +1073,34 @@
       <c r="G21" s="2">
         <v>45754</v>
       </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
       <c r="I21">
         <v>80</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74154BC2-9CD5-49C3-9CAB-A9CAB9AE2848}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B65849-F0CD-4CF2-8344-23968290269A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="46">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -143,6 +143,21 @@
   </si>
   <si>
     <t>Direction Générale</t>
+  </si>
+  <si>
+    <t>secretaire</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>chef de service</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>informaticien</t>
   </si>
 </sst>
 </file>
@@ -508,17 +523,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
@@ -593,6 +608,9 @@
       <c r="A3" t="s">
         <v>16</v>
       </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
@@ -619,6 +637,9 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -645,6 +666,9 @@
       <c r="A5" t="s">
         <v>18</v>
       </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
@@ -671,6 +695,9 @@
       <c r="A6" t="s">
         <v>19</v>
       </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
@@ -697,6 +724,9 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
@@ -723,6 +753,9 @@
       <c r="A8" t="s">
         <v>21</v>
       </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -749,6 +782,9 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
@@ -775,6 +811,9 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
@@ -801,6 +840,9 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
@@ -827,6 +869,9 @@
       <c r="A12" t="s">
         <v>25</v>
       </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
@@ -853,6 +898,9 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
@@ -879,6 +927,9 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
@@ -905,6 +956,9 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
@@ -931,6 +985,9 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
@@ -957,6 +1014,9 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -983,6 +1043,9 @@
       <c r="A18" t="s">
         <v>31</v>
       </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
@@ -1009,6 +1072,9 @@
       <c r="A19" t="s">
         <v>32</v>
       </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
@@ -1035,6 +1101,9 @@
       <c r="A20" t="s">
         <v>33</v>
       </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
@@ -1061,6 +1130,9 @@
       <c r="A21" t="s">
         <v>34</v>
       </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
@@ -1081,26 +1153,6 @@
       </c>
       <c r="J21" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets\java\classe\projetIntegrationWithMaven\src\main\resources\datasources\angleterre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE2D88C-E784-4293-9209-BC534A0A0A3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882AF24C-7193-4DCD-B8F5-4D43E7AEA7D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="1245" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InfoProfessionel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -146,6 +146,36 @@
   </si>
   <si>
     <t>ANG020</t>
+  </si>
+  <si>
+    <t>cadre</t>
+  </si>
+  <si>
+    <t>pas cadre</t>
+  </si>
+  <si>
+    <t>pascadre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cadre</t>
+  </si>
+  <si>
+    <t>Informaticien</t>
+  </si>
+  <si>
+    <t>gestionnaire comptable</t>
+  </si>
+  <si>
+    <t>gestionnaire production</t>
+  </si>
+  <si>
+    <t>agent d entretien</t>
+  </si>
+  <si>
+    <t>agent de securite</t>
+  </si>
+  <si>
+    <t>developpeur</t>
   </si>
 </sst>
 </file>
@@ -508,15 +538,15 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D7" sqref="D7:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
@@ -568,6 +598,9 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
@@ -600,6 +633,12 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -629,6 +668,12 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
@@ -658,6 +703,12 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
       <c r="E5" t="s">
         <v>12</v>
       </c>
@@ -687,6 +738,12 @@
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" t="s">
         <v>12</v>
       </c>
@@ -716,6 +773,12 @@
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" t="s">
         <v>12</v>
       </c>
@@ -745,6 +808,12 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" t="s">
         <v>12</v>
       </c>
@@ -774,6 +843,12 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" t="s">
         <v>12</v>
       </c>
@@ -803,6 +878,12 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" t="s">
         <v>12</v>
       </c>
@@ -832,6 +913,12 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
@@ -861,6 +948,12 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
@@ -890,6 +983,12 @@
       <c r="B13">
         <v>11</v>
       </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
@@ -919,6 +1018,12 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
@@ -948,6 +1053,12 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
@@ -977,6 +1088,12 @@
       <c r="B16">
         <v>14</v>
       </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
@@ -1006,6 +1123,12 @@
       <c r="B17">
         <v>15</v>
       </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
       <c r="E17" t="s">
         <v>12</v>
       </c>
@@ -1035,6 +1158,12 @@
       <c r="B18">
         <v>16</v>
       </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
@@ -1064,6 +1193,12 @@
       <c r="B19">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" t="s">
         <v>12</v>
       </c>
@@ -1093,6 +1228,12 @@
       <c r="B20">
         <v>18</v>
       </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" t="s">
         <v>12</v>
       </c>
@@ -1121,6 +1262,12 @@
       </c>
       <c r="B21">
         <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>

--- a/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
+++ b/src/main/resources/datasources/angleterre/infoProffAngleterre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\projetDintegrationGlobalHumanRessource\src\main\resources\datasources\angleterre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\datasources\datasources\angleterre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882AF24C-7193-4DCD-B8F5-4D43E7AEA7D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B761E65-BB2F-4E90-87AF-0FB0D360B0CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="58">
   <si>
     <t>Num Matricule</t>
   </si>
@@ -148,34 +148,52 @@
     <t>ANG020</t>
   </si>
   <si>
+    <t>Developpeur</t>
+  </si>
+  <si>
+    <t>pas cadre</t>
+  </si>
+  <si>
+    <t>agent de recrutement</t>
+  </si>
+  <si>
     <t>cadre</t>
   </si>
   <si>
-    <t>pas cadre</t>
-  </si>
-  <si>
-    <t>pascadre</t>
+    <t>Logisticien</t>
   </si>
   <si>
     <t xml:space="preserve"> cadre</t>
   </si>
   <si>
+    <t>Agent d'audit</t>
+  </si>
+  <si>
+    <t>Assistant de direction</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>sécretaire</t>
+  </si>
+  <si>
+    <t>Community manager</t>
+  </si>
+  <si>
+    <t>Manuttentionaire</t>
+  </si>
+  <si>
+    <t>Agent de recouvrement</t>
+  </si>
+  <si>
     <t>Informaticien</t>
   </si>
   <si>
-    <t>gestionnaire comptable</t>
-  </si>
-  <si>
-    <t>gestionnaire production</t>
-  </si>
-  <si>
     <t>agent d entretien</t>
   </si>
   <si>
-    <t>agent de securite</t>
-  </si>
-  <si>
-    <t>developpeur</t>
+    <t>gestionnaire RH</t>
   </si>
 </sst>
 </file>
@@ -537,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +565,7 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -599,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -620,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="J2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -637,7 +655,7 @@
         <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -655,7 +673,7 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
@@ -669,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>46</v>
@@ -704,10 +722,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -739,10 +757,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -777,7 +795,7 @@
         <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -795,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
         <v>15</v>
@@ -865,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="J9">
-        <v>9.0299999999999994</v>
+        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
@@ -882,7 +900,7 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -900,7 +918,7 @@
         <v>18</v>
       </c>
       <c r="J10">
-        <v>12.13</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -917,7 +935,7 @@
         <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -935,7 +953,7 @@
         <v>19</v>
       </c>
       <c r="J11">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
@@ -987,7 +1005,7 @@
         <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -1127,7 +1145,7 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1145,7 +1163,7 @@
         <v>19</v>
       </c>
       <c r="J17">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
@@ -1162,7 +1180,7 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1180,7 +1198,7 @@
         <v>20</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
@@ -1194,10 +1212,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -1215,7 +1233,7 @@
         <v>21</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K19" t="s">
         <v>15</v>
@@ -1232,7 +1250,7 @@
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>
@@ -1264,10 +1282,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
         <v>12</v>
@@ -1294,4 +1312,212 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100654329B97B503A49AABBB110B3A1CE9F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cbeca0e78f2af041d481eb5f034a155f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8622fd7-cec1-4731-a423-3ed22d3b9aea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bec814e9f48df65f8f22e78da7713096" ns2:_="">
+    <xsd:import namespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d8622fd7-cec1-4731-a423-3ed22d3b9aea" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Type de contenu"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titre"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A74B002C-7599-48CC-8F64-1B93CF0ABA2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d8622fd7-cec1-4731-a423-3ed22d3b9aea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{371CA228-C559-4D02-8CFA-E6150F734750}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20522E1C-FB73-4B3E-8087-789D0B8267B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>